--- a/emx/dist/rd3_portal_cluster.xlsx
+++ b/emx/dist/rd3_portal_cluster.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>rd3_portal</t>
   </si>
@@ -39,6 +39,9 @@
     <t>rd3_portal_cluster</t>
   </si>
   <si>
+    <t>release</t>
+  </si>
+  <si>
     <t>path</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Patch information</t>
   </si>
   <si>
     <t>path to location of the file</t>
@@ -451,13 +457,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -486,16 +492,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -519,7 +525,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,25 +533,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -559,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -568,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -582,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -591,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -605,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -614,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -628,7 +634,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -637,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -651,7 +657,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -660,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -673,14 +679,37 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="F7" t="b">
+      <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>18</v>
+      <c r="G8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
